--- a/tools_n_data/MoonRiver.xlsx
+++ b/tools_n_data/MoonRiver.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="72">
   <si>
     <t xml:space="preserve">#title</t>
   </si>
@@ -39,6 +39,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">#</t>
     </r>
@@ -47,6 +48,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">작성자</t>
     </r>
@@ -59,6 +61,9 @@
   </si>
   <si>
     <t xml:space="preserve">#thumbnail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">null</t>
   </si>
   <si>
     <r>
@@ -66,6 +71,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">#</t>
     </r>
@@ -74,6 +80,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">작성일자</t>
     </r>
@@ -96,6 +103,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">8</t>
     </r>
@@ -104,6 +112,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">분음표 기준</t>
     </r>
@@ -114,6 +123,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">#</t>
     </r>
@@ -122,6 +132,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">박자</t>
     </r>
@@ -135,6 +146,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">#</t>
     </r>
@@ -143,6 +155,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">마디</t>
     </r>
@@ -159,6 +172,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">from YouTube - </t>
     </r>
@@ -167,6 +181,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">대전 </t>
     </r>
@@ -175,6 +190,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">aloha ukulele </t>
     </r>
@@ -183,6 +199,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">동영상</t>
     </r>
@@ -214,6 +231,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">#</t>
     </r>
@@ -222,6 +240,7 @@
         <sz val="10"/>
         <rFont val="Noto Sans CJK JP"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">가사</t>
     </r>
@@ -369,6 +388,7 @@
       <sz val="10"/>
       <name val="Noto Sans CJK JP"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -389,12 +409,14 @@
       <sz val="10"/>
       <name val="Noto Sans CJK JP Regular"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Noto Sans CJK JP Regular"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -590,7 +612,7 @@
   <dimension ref="A1:CE55"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -643,19 +665,21 @@
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" s="1" customFormat="true" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>80</v>
@@ -663,31 +687,31 @@
     </row>
     <row r="8" s="1" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="true" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="true" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>0</v>
@@ -695,16 +719,16 @@
     </row>
     <row r="12" s="1" customFormat="true" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="14" s="7" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -743,7 +767,7 @@
       <c r="AJ14" s="6"/>
       <c r="AK14" s="6"/>
       <c r="AL14" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
@@ -793,7 +817,7 @@
     </row>
     <row r="15" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
@@ -838,7 +862,7 @@
       <c r="AD15" s="9"/>
       <c r="AE15" s="9"/>
       <c r="AF15" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG15" s="9"/>
       <c r="AH15" s="9"/>
@@ -846,12 +870,12 @@
       <c r="AJ15" s="9"/>
       <c r="AK15" s="9"/>
       <c r="AL15" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" s="8" t="n">
         <v>3</v>
@@ -910,12 +934,12 @@
       <c r="AJ16" s="9"/>
       <c r="AK16" s="9"/>
       <c r="AL16" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" s="8" t="n">
         <v>0</v>
@@ -970,12 +994,12 @@
       </c>
       <c r="AK17" s="9"/>
       <c r="AL17" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" s="8" t="n">
         <v>0</v>
@@ -1020,15 +1044,15 @@
       <c r="AJ18" s="9"/>
       <c r="AK18" s="9"/>
       <c r="AL18" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -1036,7 +1060,7 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
@@ -1044,54 +1068,54 @@
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
       <c r="N19" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
       <c r="R19" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T19" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="U19" s="5"/>
       <c r="V19" s="5"/>
       <c r="W19" s="5"/>
       <c r="X19" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Y19" s="5"/>
       <c r="Z19" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AA19" s="5"/>
       <c r="AB19" s="5"/>
       <c r="AC19" s="5"/>
       <c r="AD19" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AE19" s="5"/>
       <c r="AF19" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AG19" s="5"/>
       <c r="AH19" s="5"/>
       <c r="AI19" s="5"/>
       <c r="AJ19" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AK19" s="5"/>
       <c r="AL19" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" s="7" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -1130,7 +1154,7 @@
       <c r="AJ20" s="6"/>
       <c r="AK20" s="6"/>
       <c r="AL20" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM20" s="1"/>
       <c r="AN20" s="1"/>
@@ -1180,20 +1204,20 @@
     </row>
     <row r="21" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G21" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="12" t="s">
         <v>40</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>39</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1225,31 +1249,31 @@
       <c r="AJ21" s="9"/>
       <c r="AK21" s="9"/>
       <c r="AL21" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c r="L22" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M22" s="9"/>
       <c r="N22" s="8"/>
@@ -1259,11 +1283,11 @@
       <c r="R22" s="9"/>
       <c r="S22" s="9"/>
       <c r="T22" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U22" s="9"/>
       <c r="V22" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W22" s="9"/>
       <c r="X22" s="9"/>
@@ -1275,22 +1299,22 @@
       <c r="AD22" s="9"/>
       <c r="AE22" s="9"/>
       <c r="AF22" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AG22" s="9"/>
       <c r="AH22" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AI22" s="9"/>
       <c r="AJ22" s="9"/>
       <c r="AK22" s="9"/>
       <c r="AL22" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" s="8" t="n">
         <v>2</v>
@@ -1301,7 +1325,7 @@
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1309,7 +1333,7 @@
       <c r="L23" s="9"/>
       <c r="M23" s="9"/>
       <c r="N23" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O23" s="9"/>
       <c r="P23" s="9"/>
@@ -1321,13 +1345,13 @@
       <c r="V23" s="9"/>
       <c r="W23" s="9"/>
       <c r="X23" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y23" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Z23" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AA23" s="9"/>
       <c r="AB23" s="9"/>
@@ -1340,15 +1364,15 @@
       <c r="AI23" s="9"/>
       <c r="AJ23" s="9"/>
       <c r="AK23" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AL23" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="9"/>
@@ -1357,7 +1381,7 @@
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1365,7 +1389,7 @@
       <c r="L24" s="9"/>
       <c r="M24" s="9"/>
       <c r="N24" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O24" s="9"/>
       <c r="P24" s="9"/>
@@ -1379,7 +1403,7 @@
       <c r="X24" s="9"/>
       <c r="Y24" s="9"/>
       <c r="Z24" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AA24" s="9"/>
       <c r="AB24" s="9"/>
@@ -1393,15 +1417,15 @@
       <c r="AJ24" s="9"/>
       <c r="AK24" s="9"/>
       <c r="AL24" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -1413,11 +1437,11 @@
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M25" s="5"/>
       <c r="N25" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
@@ -1425,17 +1449,17 @@
       <c r="R25" s="5"/>
       <c r="S25" s="5"/>
       <c r="T25" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="U25" s="5"/>
       <c r="V25" s="5"/>
       <c r="W25" s="5"/>
       <c r="X25" s="5"/>
       <c r="Y25" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Z25" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AA25" s="5"/>
       <c r="AB25" s="5"/>
@@ -1443,22 +1467,22 @@
       <c r="AD25" s="5"/>
       <c r="AE25" s="5"/>
       <c r="AF25" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG25" s="5"/>
       <c r="AH25" s="5"/>
       <c r="AI25" s="5"/>
       <c r="AJ25" s="5"/>
       <c r="AK25" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AL25" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" s="7" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -1491,7 +1515,7 @@
       <c r="AD26" s="6"/>
       <c r="AE26" s="6"/>
       <c r="AF26" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG26" s="6"/>
       <c r="AH26" s="6"/>
@@ -1547,7 +1571,7 @@
     </row>
     <row r="27" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="9"/>
@@ -1556,27 +1580,27 @@
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
       <c r="M27" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N27" s="12" t="s">
         <v>40</v>
-      </c>
-      <c r="N27" s="12" t="s">
-        <v>39</v>
       </c>
       <c r="O27" s="9"/>
       <c r="P27" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q27" s="9"/>
       <c r="R27" s="9"/>
       <c r="S27" s="9"/>
       <c r="T27" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U27" s="9"/>
       <c r="V27" s="9"/>
@@ -1584,7 +1608,7 @@
       <c r="X27" s="9"/>
       <c r="Y27" s="9"/>
       <c r="Z27" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AA27" s="9"/>
       <c r="AB27" s="9"/>
@@ -1592,7 +1616,7 @@
       <c r="AD27" s="9"/>
       <c r="AE27" s="9"/>
       <c r="AF27" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG27" s="9"/>
       <c r="AH27" s="9"/>
@@ -1602,42 +1626,42 @@
     </row>
     <row r="28" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>23</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G28" s="9"/>
       <c r="H28" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
       <c r="M28" s="9"/>
       <c r="N28" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O28" s="9"/>
       <c r="P28" s="9"/>
       <c r="Q28" s="9"/>
       <c r="R28" s="9"/>
       <c r="S28" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T28" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U28" s="9"/>
       <c r="V28" s="9"/>
@@ -1645,7 +1669,7 @@
       <c r="X28" s="9"/>
       <c r="Y28" s="9"/>
       <c r="Z28" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AA28" s="9"/>
       <c r="AB28" s="9"/>
@@ -1653,7 +1677,7 @@
       <c r="AD28" s="9"/>
       <c r="AE28" s="9"/>
       <c r="AF28" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG28" s="9"/>
       <c r="AH28" s="9"/>
@@ -1663,10 +1687,10 @@
     </row>
     <row r="29" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -1674,7 +1698,7 @@
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
       <c r="H29" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1682,7 +1706,7 @@
       <c r="L29" s="9"/>
       <c r="M29" s="9"/>
       <c r="N29" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O29" s="9"/>
       <c r="P29" s="9"/>
@@ -1690,7 +1714,7 @@
       <c r="R29" s="9"/>
       <c r="S29" s="9"/>
       <c r="T29" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U29" s="9"/>
       <c r="V29" s="9"/>
@@ -1698,7 +1722,7 @@
       <c r="X29" s="9"/>
       <c r="Y29" s="9"/>
       <c r="Z29" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AA29" s="9"/>
       <c r="AB29" s="9"/>
@@ -1706,7 +1730,7 @@
       <c r="AD29" s="9"/>
       <c r="AE29" s="9"/>
       <c r="AF29" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG29" s="9"/>
       <c r="AH29" s="9"/>
@@ -1716,10 +1740,10 @@
     </row>
     <row r="30" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -1739,7 +1763,7 @@
       <c r="R30" s="9"/>
       <c r="S30" s="9"/>
       <c r="T30" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U30" s="9"/>
       <c r="V30" s="9"/>
@@ -1747,7 +1771,7 @@
       <c r="X30" s="9"/>
       <c r="Y30" s="9"/>
       <c r="Z30" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AA30" s="9"/>
       <c r="AB30" s="9"/>
@@ -1755,7 +1779,7 @@
       <c r="AD30" s="9"/>
       <c r="AE30" s="9"/>
       <c r="AF30" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG30" s="9"/>
       <c r="AH30" s="9"/>
@@ -1765,30 +1789,30 @@
     </row>
     <row r="31" s="1" customFormat="true" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C31" s="5"/>
       <c r="F31" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I31" s="5"/>
       <c r="M31" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="N31" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="N31" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
       <c r="S31" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T31" s="5"/>
       <c r="U31" s="5"/>
@@ -1803,7 +1827,7 @@
       <c r="AD31" s="5"/>
       <c r="AE31" s="5"/>
       <c r="AF31" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG31" s="5"/>
       <c r="AH31" s="5"/>
@@ -1813,7 +1837,7 @@
     </row>
     <row r="32" s="7" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -1852,7 +1876,7 @@
       <c r="AJ32" s="6"/>
       <c r="AK32" s="6"/>
       <c r="AL32" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM32" s="1"/>
       <c r="AN32" s="1"/>
@@ -1902,10 +1926,10 @@
     </row>
     <row r="33" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -1913,22 +1937,22 @@
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
       <c r="H33" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
       <c r="M33" s="9"/>
       <c r="N33" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O33" s="9"/>
       <c r="P33" s="9"/>
       <c r="Q33" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R33" s="9"/>
       <c r="S33" s="9"/>
@@ -1939,17 +1963,17 @@
       <c r="X33" s="9"/>
       <c r="Y33" s="9"/>
       <c r="Z33" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AA33" s="9"/>
       <c r="AB33" s="9"/>
       <c r="AC33" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AD33" s="9"/>
       <c r="AE33" s="9"/>
       <c r="AF33" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG33" s="9"/>
       <c r="AH33" s="9"/>
@@ -1957,12 +1981,12 @@
       <c r="AJ33" s="9"/>
       <c r="AK33" s="9"/>
       <c r="AL33" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B34" s="8"/>
       <c r="C34" s="9"/>
@@ -1971,7 +1995,7 @@
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
       <c r="H34" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1979,19 +2003,19 @@
       <c r="L34" s="9"/>
       <c r="M34" s="9"/>
       <c r="N34" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O34" s="9"/>
       <c r="P34" s="9"/>
       <c r="Q34" s="9"/>
       <c r="R34" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S34" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="T34" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="T34" s="12" t="s">
-        <v>41</v>
       </c>
       <c r="U34" s="9"/>
       <c r="V34" s="9"/>
@@ -1999,19 +2023,19 @@
       <c r="X34" s="9"/>
       <c r="Y34" s="9"/>
       <c r="Z34" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AA34" s="9"/>
       <c r="AB34" s="9"/>
       <c r="AC34" s="9"/>
       <c r="AD34" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AE34" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF34" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="AF34" s="12" t="s">
-        <v>41</v>
       </c>
       <c r="AG34" s="9"/>
       <c r="AH34" s="9"/>
@@ -2019,15 +2043,15 @@
       <c r="AJ34" s="9"/>
       <c r="AK34" s="9"/>
       <c r="AL34" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
@@ -2035,7 +2059,7 @@
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
       <c r="H35" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2043,7 +2067,7 @@
       <c r="L35" s="9"/>
       <c r="M35" s="9"/>
       <c r="N35" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O35" s="9"/>
       <c r="P35" s="9"/>
@@ -2051,17 +2075,17 @@
       <c r="R35" s="9"/>
       <c r="S35" s="9"/>
       <c r="T35" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U35" s="9"/>
       <c r="V35" s="9"/>
       <c r="W35" s="9"/>
       <c r="X35" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Y35" s="9"/>
       <c r="Z35" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AA35" s="9"/>
       <c r="AB35" s="9"/>
@@ -2069,25 +2093,25 @@
       <c r="AD35" s="9"/>
       <c r="AE35" s="9"/>
       <c r="AF35" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AG35" s="9"/>
       <c r="AH35" s="9"/>
       <c r="AI35" s="9"/>
       <c r="AJ35" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AK35" s="9"/>
       <c r="AL35" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -2107,7 +2131,7 @@
       <c r="R36" s="9"/>
       <c r="S36" s="9"/>
       <c r="T36" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U36" s="9"/>
       <c r="V36" s="9"/>
@@ -2121,7 +2145,7 @@
       <c r="AD36" s="9"/>
       <c r="AE36" s="9"/>
       <c r="AF36" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AG36" s="9"/>
       <c r="AH36" s="9"/>
@@ -2129,15 +2153,15 @@
       <c r="AJ36" s="9"/>
       <c r="AK36" s="9"/>
       <c r="AL36" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="true" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -2145,7 +2169,7 @@
       <c r="F37" s="5"/>
       <c r="G37" s="5"/>
       <c r="H37" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I37" s="5"/>
       <c r="J37" s="5"/>
@@ -2153,7 +2177,7 @@
       <c r="L37" s="5"/>
       <c r="M37" s="5"/>
       <c r="N37" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
@@ -2179,12 +2203,12 @@
       <c r="AJ37" s="5"/>
       <c r="AK37" s="5"/>
       <c r="AL37" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" s="7" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -2223,7 +2247,7 @@
       <c r="AJ38" s="6"/>
       <c r="AK38" s="6"/>
       <c r="AL38" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM38" s="1"/>
       <c r="AN38" s="1"/>
@@ -2273,20 +2297,20 @@
     </row>
     <row r="39" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B39" s="8"/>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
       <c r="F39" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G39" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="H39" s="12" t="s">
         <v>40</v>
-      </c>
-      <c r="H39" s="12" t="s">
-        <v>39</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2300,7 +2324,7 @@
       <c r="R39" s="9"/>
       <c r="S39" s="9"/>
       <c r="T39" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U39" s="9"/>
       <c r="V39" s="9"/>
@@ -2308,13 +2332,13 @@
       <c r="X39" s="9"/>
       <c r="Y39" s="9"/>
       <c r="Z39" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AA39" s="9"/>
       <c r="AB39" s="9"/>
       <c r="AC39" s="9"/>
       <c r="AD39" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AE39" s="9"/>
       <c r="AF39" s="8"/>
@@ -2324,12 +2348,12 @@
       <c r="AJ39" s="9"/>
       <c r="AK39" s="9"/>
       <c r="AL39" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="9"/>
@@ -2338,27 +2362,27 @@
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
       <c r="H40" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c r="L40" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M40" s="9"/>
       <c r="N40" s="8"/>
       <c r="O40" s="9"/>
       <c r="P40" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q40" s="9"/>
       <c r="R40" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S40" s="9"/>
       <c r="T40" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U40" s="9"/>
       <c r="V40" s="9"/>
@@ -2366,7 +2390,7 @@
       <c r="X40" s="9"/>
       <c r="Y40" s="9"/>
       <c r="Z40" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AA40" s="9"/>
       <c r="AB40" s="9"/>
@@ -2374,7 +2398,7 @@
       <c r="AD40" s="9"/>
       <c r="AE40" s="9"/>
       <c r="AF40" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AG40" s="9"/>
       <c r="AH40" s="9"/>
@@ -2382,15 +2406,15 @@
       <c r="AJ40" s="9"/>
       <c r="AK40" s="9"/>
       <c r="AL40" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
@@ -2398,7 +2422,7 @@
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
       <c r="H41" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2406,7 +2430,7 @@
       <c r="L41" s="9"/>
       <c r="M41" s="9"/>
       <c r="N41" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O41" s="9"/>
       <c r="P41" s="9"/>
@@ -2414,7 +2438,7 @@
       <c r="R41" s="9"/>
       <c r="S41" s="9"/>
       <c r="T41" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U41" s="9"/>
       <c r="V41" s="9"/>
@@ -2422,7 +2446,7 @@
       <c r="X41" s="9"/>
       <c r="Y41" s="9"/>
       <c r="Z41" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AA41" s="9"/>
       <c r="AB41" s="9"/>
@@ -2430,7 +2454,7 @@
       <c r="AD41" s="9"/>
       <c r="AE41" s="9"/>
       <c r="AF41" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AG41" s="9"/>
       <c r="AH41" s="9"/>
@@ -2438,12 +2462,12 @@
       <c r="AJ41" s="9"/>
       <c r="AK41" s="9"/>
       <c r="AL41" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="9"/>
@@ -2452,7 +2476,7 @@
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
       <c r="H42" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2460,7 +2484,7 @@
       <c r="L42" s="9"/>
       <c r="M42" s="9"/>
       <c r="N42" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O42" s="9"/>
       <c r="P42" s="9"/>
@@ -2468,7 +2492,7 @@
       <c r="R42" s="9"/>
       <c r="S42" s="9"/>
       <c r="T42" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U42" s="9"/>
       <c r="V42" s="9"/>
@@ -2476,7 +2500,7 @@
       <c r="X42" s="9"/>
       <c r="Y42" s="9"/>
       <c r="Z42" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AA42" s="9"/>
       <c r="AB42" s="9"/>
@@ -2484,7 +2508,7 @@
       <c r="AD42" s="9"/>
       <c r="AE42" s="9"/>
       <c r="AF42" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AG42" s="9"/>
       <c r="AH42" s="9"/>
@@ -2492,12 +2516,12 @@
       <c r="AJ42" s="9"/>
       <c r="AK42" s="9"/>
       <c r="AL42" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" s="1" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -2518,7 +2542,7 @@
       <c r="R43" s="5"/>
       <c r="S43" s="5"/>
       <c r="T43" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U43" s="5"/>
       <c r="V43" s="5"/>
@@ -2526,7 +2550,7 @@
       <c r="X43" s="5"/>
       <c r="Y43" s="5"/>
       <c r="Z43" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA43" s="5"/>
       <c r="AB43" s="5"/>
@@ -2534,7 +2558,7 @@
       <c r="AD43" s="5"/>
       <c r="AE43" s="5"/>
       <c r="AF43" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AG43" s="5"/>
       <c r="AH43" s="5"/>
@@ -2542,12 +2566,12 @@
       <c r="AJ43" s="5"/>
       <c r="AK43" s="5"/>
       <c r="AL43" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" s="7" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -2586,7 +2610,7 @@
       <c r="AJ44" s="6"/>
       <c r="AK44" s="6"/>
       <c r="AL44" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM44" s="1"/>
       <c r="AN44" s="1"/>
@@ -2636,15 +2660,15 @@
     </row>
     <row r="45" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B45" s="8"/>
       <c r="C45" s="9"/>
       <c r="D45" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
@@ -2657,10 +2681,10 @@
       <c r="N45" s="8"/>
       <c r="O45" s="9"/>
       <c r="P45" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q45" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R45" s="9"/>
       <c r="S45" s="9"/>
@@ -2683,25 +2707,25 @@
       <c r="AJ45" s="9"/>
       <c r="AK45" s="9"/>
       <c r="AL45" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
       <c r="F46" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G46" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H46" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="H46" s="12" t="s">
-        <v>41</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2713,13 +2737,13 @@
       <c r="P46" s="9"/>
       <c r="Q46" s="9"/>
       <c r="R46" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="S46" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="T46" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="T46" s="12" t="s">
-        <v>41</v>
       </c>
       <c r="U46" s="9"/>
       <c r="V46" s="9"/>
@@ -2733,25 +2757,25 @@
       <c r="AD46" s="9"/>
       <c r="AE46" s="9"/>
       <c r="AF46" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AG46" s="9"/>
       <c r="AH46" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI46" s="9"/>
       <c r="AJ46" s="9"/>
       <c r="AK46" s="9"/>
       <c r="AL46" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -2759,7 +2783,7 @@
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
       <c r="H47" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2767,7 +2791,7 @@
       <c r="L47" s="9"/>
       <c r="M47" s="9"/>
       <c r="N47" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O47" s="9"/>
       <c r="P47" s="9"/>
@@ -2775,7 +2799,7 @@
       <c r="R47" s="9"/>
       <c r="S47" s="9"/>
       <c r="T47" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U47" s="9"/>
       <c r="V47" s="9"/>
@@ -2783,7 +2807,7 @@
       <c r="X47" s="9"/>
       <c r="Y47" s="9"/>
       <c r="Z47" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AA47" s="9"/>
       <c r="AB47" s="9"/>
@@ -2791,22 +2815,22 @@
       <c r="AD47" s="9"/>
       <c r="AE47" s="9"/>
       <c r="AF47" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AG47" s="9"/>
       <c r="AH47" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AI47" s="9"/>
       <c r="AJ47" s="9"/>
       <c r="AK47" s="9"/>
       <c r="AL47" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B48" s="8"/>
       <c r="C48" s="9"/>
@@ -2815,7 +2839,7 @@
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
       <c r="H48" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2829,7 +2853,7 @@
       <c r="R48" s="9"/>
       <c r="S48" s="9"/>
       <c r="T48" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U48" s="9"/>
       <c r="V48" s="9"/>
@@ -2837,7 +2861,7 @@
       <c r="X48" s="9"/>
       <c r="Y48" s="9"/>
       <c r="Z48" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AA48" s="9"/>
       <c r="AB48" s="9"/>
@@ -2845,7 +2869,7 @@
       <c r="AD48" s="9"/>
       <c r="AE48" s="9"/>
       <c r="AF48" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AG48" s="9"/>
       <c r="AH48" s="9"/>
@@ -2853,12 +2877,12 @@
       <c r="AJ48" s="9"/>
       <c r="AK48" s="9"/>
       <c r="AL48" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" s="1" customFormat="true" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
@@ -2873,17 +2897,17 @@
       <c r="L49" s="5"/>
       <c r="M49" s="5"/>
       <c r="N49" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O49" s="5"/>
       <c r="P49" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q49" s="5"/>
       <c r="R49" s="5"/>
       <c r="S49" s="5"/>
       <c r="T49" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="U49" s="5"/>
       <c r="V49" s="5"/>
@@ -2891,7 +2915,7 @@
       <c r="X49" s="5"/>
       <c r="Y49" s="5"/>
       <c r="Z49" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AA49" s="5"/>
       <c r="AB49" s="5"/>
@@ -2899,7 +2923,7 @@
       <c r="AD49" s="5"/>
       <c r="AE49" s="5"/>
       <c r="AF49" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AG49" s="5"/>
       <c r="AH49" s="5"/>
@@ -2907,12 +2931,12 @@
       <c r="AJ49" s="5"/>
       <c r="AK49" s="5"/>
       <c r="AL49" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" s="7" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -2927,7 +2951,7 @@
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
       <c r="N50" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O50" s="6"/>
       <c r="P50" s="6"/>
@@ -3001,7 +3025,7 @@
     </row>
     <row r="51" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B51" s="8"/>
       <c r="C51" s="9"/>
@@ -3010,7 +3034,7 @@
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
       <c r="H51" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3018,7 +3042,7 @@
       <c r="L51" s="9"/>
       <c r="M51" s="9"/>
       <c r="N51" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O51" s="9"/>
       <c r="P51" s="9"/>
@@ -3046,18 +3070,18 @@
     </row>
     <row r="52" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B52" s="8"/>
       <c r="C52" s="9"/>
       <c r="D52" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
       <c r="H52" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3065,7 +3089,7 @@
       <c r="L52" s="9"/>
       <c r="M52" s="9"/>
       <c r="N52" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O52" s="9"/>
       <c r="P52" s="9"/>
@@ -3093,10 +3117,10 @@
     </row>
     <row r="53" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
@@ -3104,7 +3128,7 @@
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
       <c r="H53" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3112,7 +3136,7 @@
       <c r="L53" s="9"/>
       <c r="M53" s="9"/>
       <c r="N53" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O53" s="9"/>
       <c r="P53" s="9"/>
@@ -3140,7 +3164,7 @@
     </row>
     <row r="54" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B54" s="8"/>
       <c r="C54" s="9"/>
@@ -3149,7 +3173,7 @@
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
       <c r="H54" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3157,7 +3181,7 @@
       <c r="L54" s="9"/>
       <c r="M54" s="9"/>
       <c r="N54" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O54" s="9"/>
       <c r="P54" s="9"/>
@@ -3185,10 +3209,10 @@
     </row>
     <row r="55" s="1" customFormat="true" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
@@ -3196,7 +3220,7 @@
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
@@ -3204,7 +3228,7 @@
       <c r="L55" s="5"/>
       <c r="M55" s="5"/>
       <c r="N55" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O55" s="5"/>
       <c r="P55" s="5"/>
